--- a/Lab2/FFT_actual.xlsx
+++ b/Lab2/FFT_actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/april/ece3400/purplecobras/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF26D2B7-6135-3041-A369-E3A6038276AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F42BA25-07C5-BA41-8401-41BC7B4CEE64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{42DBBAE5-22AD-1A4F-B163-44C7494F505F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{42DBBAE5-22AD-1A4F-B163-44C7494F505F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1016,8 +1016,868 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Both 6.08 and 18kHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B738-AF43-A409-DAD88A1C8A6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>660hz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B738-AF43-A409-DAD88A1C8A6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>No signal</c:v>
           </c:tx>
@@ -1445,866 +2305,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Both</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$1:$G$128</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
-                <c:pt idx="0">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B738-AF43-A409-DAD88A1C8A6E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>660hz</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$1:$I$128</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="128"/>
-                <c:pt idx="0">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B738-AF43-A409-DAD88A1C8A6E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2337,6 +2337,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2378,6 +2427,7 @@
         <c:axId val="456016127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2441,6 +2491,34 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4195,16 +4273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4573,7 +4651,7 @@
   <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
